--- a/iso_simulator/annualSimulation/LCA/Primary_energy_and_emission_factors.xlsx
+++ b/iso_simulator/annualSimulation/LCA/Primary_energy_and_emission_factors.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/DIBS---Dynamic-ISO-Building-Simulator/iso_simulator/annualSimulation/LCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{39144B03-9582-4C0A-9967-1057809B5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7FFC7E0-E026-44F5-B534-B6F33478AB11}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{39144B03-9582-4C0A-9967-1057809B5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3C7F3E2-B437-47DC-A849-23E15998380B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Primary_energy_and_emission_fac" sheetId="2" r:id="rId2"/>
-    <sheet name="CSV_Export" sheetId="3" r:id="rId3"/>
+    <sheet name="Primary_energy_and_emission_fac" sheetId="2" r:id="rId1"/>
+    <sheet name="CSV_Export" sheetId="3" r:id="rId2"/>
+    <sheet name="DE_ENG" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
   <si>
     <t>Rote Werte sind nicht GEG konform und müssen entsprechend § 22 bzw. § 85 nach DIN V 18599-9:2018-09 ermittelt werden!</t>
   </si>
@@ -559,7 +559,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,9 +738,6 @@
     <xf numFmtId="1" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -763,6 +760,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1044,11 +1045,1405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45E3DC-C1A7-49A4-A896-CB622C66A4D4}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="D2" s="8">
+        <v>310</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D3" s="15">
+        <v>240</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D4" s="15">
+        <v>270</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="D5" s="15">
+        <v>400</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1.07</v>
+      </c>
+      <c r="D6" s="22">
+        <v>430</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D7" s="15">
+        <v>140</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D8" s="15">
+        <v>75</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D9" s="15">
+        <v>140</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D10" s="15">
+        <v>140</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="D11" s="15">
+        <v>210</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="D12" s="15">
+        <v>105</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="50">
+        <f>(B7+B11)/2</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="50">
+        <f t="shared" ref="C13:D13" si="0">(C7+C11)/2</f>
+        <v>1.085</v>
+      </c>
+      <c r="D13" s="51">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1.08</v>
+      </c>
+      <c r="D14" s="22">
+        <v>20</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>300</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="35">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>180</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="37">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22">
+        <v>40</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>400</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="C19" s="35">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>300</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22">
+        <v>60</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="20">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15">
+        <v>20</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="38">
+        <v>180</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="20">
+        <v>0</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22">
+        <v>40</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>505</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15">
+        <v>560</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="20">
+        <v>2.8</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="47">
+        <v>860</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="50">
+        <v>0</v>
+      </c>
+      <c r="C31" s="54">
+        <v>1</v>
+      </c>
+      <c r="D31" s="55">
+        <v>0</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="50">
+        <v>0</v>
+      </c>
+      <c r="C32" s="54">
+        <v>1</v>
+      </c>
+      <c r="D32" s="55">
+        <v>0</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="57">
+        <f>B29/I33</f>
+        <v>0.72</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1</v>
+      </c>
+      <c r="D33" s="56">
+        <f>D29/I33</f>
+        <v>224</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="58">
+        <v>2.5</v>
+      </c>
+      <c r="J33" s="58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="50">
+        <v>0</v>
+      </c>
+      <c r="C34" s="54">
+        <v>1</v>
+      </c>
+      <c r="D34" s="55">
+        <v>0</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82E5A95-F5A3-4294-9631-BBFD3FF8EEA6}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>Primary_energy_and_emission_fac!A1</f>
+        <v>Energy Carrier</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Primary_energy_and_emission_fac!B1</f>
+        <v>Primary Energy Factor GEG   [-]</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Primary_energy_and_emission_fac!C1</f>
+        <v>Relation Calorific to Heating Value GEG  [-]</v>
+      </c>
+      <c r="D1" t="str">
+        <f>Primary_energy_and_emission_fac!D1</f>
+        <v>GWP spezific to heating value GEG [g/kWh]</v>
+      </c>
+      <c r="E1" t="str">
+        <f>Primary_energy_and_emission_fac!E1</f>
+        <v>Use</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>Primary_energy_and_emission_fac!A2</f>
+        <v>Light fuel oil</v>
+      </c>
+      <c r="B2">
+        <f>Primary_energy_and_emission_fac!B2</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2">
+        <f>Primary_energy_and_emission_fac!C2</f>
+        <v>1.06</v>
+      </c>
+      <c r="D2">
+        <f>Primary_energy_and_emission_fac!D2</f>
+        <v>310</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Primary_energy_and_emission_fac!E2</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>Primary_energy_and_emission_fac!A3</f>
+        <v>Natural gas</v>
+      </c>
+      <c r="B3">
+        <f>Primary_energy_and_emission_fac!B3</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <f>Primary_energy_and_emission_fac!C3</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D3">
+        <f>Primary_energy_and_emission_fac!D3</f>
+        <v>240</v>
+      </c>
+      <c r="E3" t="str">
+        <f>Primary_energy_and_emission_fac!E3</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Primary_energy_and_emission_fac!A4</f>
+        <v>Liquefied petroleum gas (LPG)</v>
+      </c>
+      <c r="B4">
+        <f>Primary_energy_and_emission_fac!B4</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4">
+        <f>Primary_energy_and_emission_fac!C4</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D4">
+        <f>Primary_energy_and_emission_fac!D4</f>
+        <v>270</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Primary_energy_and_emission_fac!E4</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Primary_energy_and_emission_fac!A5</f>
+        <v>Hard coal</v>
+      </c>
+      <c r="B5">
+        <f>Primary_energy_and_emission_fac!B5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5">
+        <f>Primary_energy_and_emission_fac!C5</f>
+        <v>1.04</v>
+      </c>
+      <c r="D5">
+        <f>Primary_energy_and_emission_fac!D5</f>
+        <v>400</v>
+      </c>
+      <c r="E5" t="str">
+        <f>Primary_energy_and_emission_fac!E5</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Primary_energy_and_emission_fac!A6</f>
+        <v>Soft coal</v>
+      </c>
+      <c r="B6">
+        <f>Primary_energy_and_emission_fac!B6</f>
+        <v>1.2</v>
+      </c>
+      <c r="C6">
+        <f>Primary_energy_and_emission_fac!C6</f>
+        <v>1.07</v>
+      </c>
+      <c r="D6">
+        <f>Primary_energy_and_emission_fac!D6</f>
+        <v>430</v>
+      </c>
+      <c r="E6" t="str">
+        <f>Primary_energy_and_emission_fac!E6</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>Primary_energy_and_emission_fac!A7</f>
+        <v>Biogas (general)</v>
+      </c>
+      <c r="B7">
+        <f>Primary_energy_and_emission_fac!B7</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <f>Primary_energy_and_emission_fac!C7</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D7">
+        <f>Primary_energy_and_emission_fac!D7</f>
+        <v>140</v>
+      </c>
+      <c r="E7" t="str">
+        <f>Primary_energy_and_emission_fac!E7</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>Primary_energy_and_emission_fac!A8</f>
+        <v>Biogas (generated close to building)</v>
+      </c>
+      <c r="B8">
+        <f>Primary_energy_and_emission_fac!B8</f>
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <f>Primary_energy_and_emission_fac!C8</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D8">
+        <f>Primary_energy_and_emission_fac!D8</f>
+        <v>75</v>
+      </c>
+      <c r="E8" t="str">
+        <f>Primary_energy_and_emission_fac!E8</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>Primary_energy_and_emission_fac!A9</f>
+        <v>Biomethan (Condensing Boiler)</v>
+      </c>
+      <c r="B9">
+        <f>Primary_energy_and_emission_fac!B9</f>
+        <v>0.7</v>
+      </c>
+      <c r="C9">
+        <f>Primary_energy_and_emission_fac!C9</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D9">
+        <f>Primary_energy_and_emission_fac!D9</f>
+        <v>140</v>
+      </c>
+      <c r="E9" t="str">
+        <f>Primary_energy_and_emission_fac!E9</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>Primary_energy_and_emission_fac!A10</f>
+        <v>Biomethan (Combined Heat and Power)</v>
+      </c>
+      <c r="B10">
+        <f>Primary_energy_and_emission_fac!B10</f>
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <f>Primary_energy_and_emission_fac!C10</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D10">
+        <f>Primary_energy_and_emission_fac!D10</f>
+        <v>140</v>
+      </c>
+      <c r="E10" t="str">
+        <f>Primary_energy_and_emission_fac!E10</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>Primary_energy_and_emission_fac!A11</f>
+        <v>Bio-oil (general)</v>
+      </c>
+      <c r="B11">
+        <f>Primary_energy_and_emission_fac!B11</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11">
+        <f>Primary_energy_and_emission_fac!C11</f>
+        <v>1.06</v>
+      </c>
+      <c r="D11">
+        <f>Primary_energy_and_emission_fac!D11</f>
+        <v>210</v>
+      </c>
+      <c r="E11" t="str">
+        <f>Primary_energy_and_emission_fac!E11</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>Primary_energy_and_emission_fac!A12</f>
+        <v>Bio-oil (generated close to building)</v>
+      </c>
+      <c r="B12">
+        <f>Primary_energy_and_emission_fac!B12</f>
+        <v>0.3</v>
+      </c>
+      <c r="C12">
+        <f>Primary_energy_and_emission_fac!C12</f>
+        <v>1.06</v>
+      </c>
+      <c r="D12">
+        <f>Primary_energy_and_emission_fac!D12</f>
+        <v>105</v>
+      </c>
+      <c r="E12" t="str">
+        <f>Primary_energy_and_emission_fac!E12</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>Primary_energy_and_emission_fac!A13</f>
+        <v>Biogas Bio-oil Mix (general)</v>
+      </c>
+      <c r="B13">
+        <f>Primary_energy_and_emission_fac!B13</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13">
+        <f>Primary_energy_and_emission_fac!C13</f>
+        <v>1.085</v>
+      </c>
+      <c r="D13">
+        <f>Primary_energy_and_emission_fac!D13</f>
+        <v>175</v>
+      </c>
+      <c r="E13" t="str">
+        <f>Primary_energy_and_emission_fac!E13</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>Primary_energy_and_emission_fac!A14</f>
+        <v>Wood</v>
+      </c>
+      <c r="B14">
+        <f>Primary_energy_and_emission_fac!B14</f>
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <f>Primary_energy_and_emission_fac!C14</f>
+        <v>1.08</v>
+      </c>
+      <c r="D14">
+        <f>Primary_energy_and_emission_fac!D14</f>
+        <v>20</v>
+      </c>
+      <c r="E14" t="str">
+        <f>Primary_energy_and_emission_fac!E14</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>Primary_energy_and_emission_fac!A15</f>
+        <v>District heating (Combined Heat and Power) Coal</v>
+      </c>
+      <c r="B15">
+        <f>Primary_energy_and_emission_fac!B15</f>
+        <v>0.7</v>
+      </c>
+      <c r="C15">
+        <f>Primary_energy_and_emission_fac!C15</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>Primary_energy_and_emission_fac!D15</f>
+        <v>300</v>
+      </c>
+      <c r="E15" t="str">
+        <f>Primary_energy_and_emission_fac!E15</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>Primary_energy_and_emission_fac!A16</f>
+        <v>District heating (Combined Heat and Power) Gas or Liquid fuels</v>
+      </c>
+      <c r="B16">
+        <f>Primary_energy_and_emission_fac!B16</f>
+        <v>0.7</v>
+      </c>
+      <c r="C16">
+        <f>Primary_energy_and_emission_fac!C16</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>Primary_energy_and_emission_fac!D16</f>
+        <v>180</v>
+      </c>
+      <c r="E16" t="str">
+        <f>Primary_energy_and_emission_fac!E16</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>Primary_energy_and_emission_fac!A17</f>
+        <v>District heating (Combined Heat and Power) Renewable fuels</v>
+      </c>
+      <c r="B17">
+        <f>Primary_energy_and_emission_fac!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>Primary_energy_and_emission_fac!C17</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>Primary_energy_and_emission_fac!D17</f>
+        <v>40</v>
+      </c>
+      <c r="E17" t="str">
+        <f>Primary_energy_and_emission_fac!E17</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>Primary_energy_and_emission_fac!A18</f>
+        <v>District heating (Heating Plant) Coal</v>
+      </c>
+      <c r="B18">
+        <f>Primary_energy_and_emission_fac!B18</f>
+        <v>1.3</v>
+      </c>
+      <c r="C18">
+        <f>Primary_energy_and_emission_fac!C18</f>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>Primary_energy_and_emission_fac!D18</f>
+        <v>400</v>
+      </c>
+      <c r="E18" t="str">
+        <f>Primary_energy_and_emission_fac!E18</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>Primary_energy_and_emission_fac!A19</f>
+        <v>District heating (Heating Plant) Gas or Liquid fuels</v>
+      </c>
+      <c r="B19">
+        <f>Primary_energy_and_emission_fac!B19</f>
+        <v>1.3</v>
+      </c>
+      <c r="C19">
+        <f>Primary_energy_and_emission_fac!C19</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>Primary_energy_and_emission_fac!D19</f>
+        <v>300</v>
+      </c>
+      <c r="E19" t="str">
+        <f>Primary_energy_and_emission_fac!E19</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>Primary_energy_and_emission_fac!A20</f>
+        <v>District heating (Heating Plant) Renewable fuels</v>
+      </c>
+      <c r="B20">
+        <f>Primary_energy_and_emission_fac!B20</f>
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <f>Primary_energy_and_emission_fac!C20</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>Primary_energy_and_emission_fac!D20</f>
+        <v>60</v>
+      </c>
+      <c r="E20" t="str">
+        <f>Primary_energy_and_emission_fac!E20</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>Primary_energy_and_emission_fac!A21</f>
+        <v>Solarthermal</v>
+      </c>
+      <c r="B21">
+        <f>Primary_energy_and_emission_fac!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>Primary_energy_and_emission_fac!C21</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>Primary_energy_and_emission_fac!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f>Primary_energy_and_emission_fac!E21</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>Primary_energy_and_emission_fac!A22</f>
+        <v>Geothermal</v>
+      </c>
+      <c r="B22">
+        <f>Primary_energy_and_emission_fac!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>Primary_energy_and_emission_fac!C22</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>Primary_energy_and_emission_fac!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f>Primary_energy_and_emission_fac!E22</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>Primary_energy_and_emission_fac!A23</f>
+        <v>Ambient heat</v>
+      </c>
+      <c r="B23">
+        <f>Primary_energy_and_emission_fac!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>Primary_energy_and_emission_fac!C23</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f>Primary_energy_and_emission_fac!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f>Primary_energy_and_emission_fac!E23</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>Primary_energy_and_emission_fac!A24</f>
+        <v>Ambient cold</v>
+      </c>
+      <c r="B24">
+        <f>Primary_energy_and_emission_fac!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>Primary_energy_and_emission_fac!C24</f>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f>Primary_energy_and_emission_fac!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>Primary_energy_and_emission_fac!E24</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>Primary_energy_and_emission_fac!A25</f>
+        <v>Heat via Residential Waste</v>
+      </c>
+      <c r="B25">
+        <f>Primary_energy_and_emission_fac!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>Primary_energy_and_emission_fac!C25</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>Primary_energy_and_emission_fac!D25</f>
+        <v>20</v>
+      </c>
+      <c r="E25" t="str">
+        <f>Primary_energy_and_emission_fac!E25</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>Primary_energy_and_emission_fac!A26</f>
+        <v>Heat via close to building Combined Heat and Power</v>
+      </c>
+      <c r="B26">
+        <f>Primary_energy_and_emission_fac!B26</f>
+        <v>0.6</v>
+      </c>
+      <c r="C26">
+        <f>Primary_energy_and_emission_fac!C26</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>Primary_energy_and_emission_fac!D26</f>
+        <v>180</v>
+      </c>
+      <c r="E26" t="str">
+        <f>Primary_energy_and_emission_fac!E26</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>Primary_energy_and_emission_fac!A27</f>
+        <v>Waste Heat generated close to building</v>
+      </c>
+      <c r="B27">
+        <f>Primary_energy_and_emission_fac!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>Primary_energy_and_emission_fac!C27</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f>Primary_energy_and_emission_fac!D27</f>
+        <v>40</v>
+      </c>
+      <c r="E27" t="str">
+        <f>Primary_energy_and_emission_fac!E27</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>Primary_energy_and_emission_fac!A28</f>
+        <v xml:space="preserve">Electricity grid mix 2018 (GEMIS) </v>
+      </c>
+      <c r="B28">
+        <f>Primary_energy_and_emission_fac!B28</f>
+        <v>2.4</v>
+      </c>
+      <c r="C28">
+        <f>Primary_energy_and_emission_fac!C28</f>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f>Primary_energy_and_emission_fac!D28</f>
+        <v>505</v>
+      </c>
+      <c r="E28" t="str">
+        <f>Primary_energy_and_emission_fac!E28</f>
+        <v>electric</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>Primary_energy_and_emission_fac!A29</f>
+        <v>Electricity grid mix</v>
+      </c>
+      <c r="B29">
+        <f>Primary_energy_and_emission_fac!B29</f>
+        <v>1.8</v>
+      </c>
+      <c r="C29">
+        <f>Primary_energy_and_emission_fac!C29</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>Primary_energy_and_emission_fac!D29</f>
+        <v>560</v>
+      </c>
+      <c r="E29" t="str">
+        <f>Primary_energy_and_emission_fac!E29</f>
+        <v>electric</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>Primary_energy_and_emission_fac!A30</f>
+        <v>Electricity grid mix Replacement</v>
+      </c>
+      <c r="B30">
+        <f>Primary_energy_and_emission_fac!B30</f>
+        <v>2.8</v>
+      </c>
+      <c r="C30">
+        <f>Primary_energy_and_emission_fac!C30</f>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>Primary_energy_and_emission_fac!D30</f>
+        <v>860</v>
+      </c>
+      <c r="E30" t="str">
+        <f>Primary_energy_and_emission_fac!E30</f>
+        <v>electric</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>Primary_energy_and_emission_fac!A31</f>
+        <v>None</v>
+      </c>
+      <c r="B31">
+        <f>Primary_energy_and_emission_fac!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f>Primary_energy_and_emission_fac!C31</f>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>Primary_energy_and_emission_fac!D31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f>Primary_energy_and_emission_fac!E31</f>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>Primary_energy_and_emission_fac!A32</f>
+        <v>NoHeating</v>
+      </c>
+      <c r="B32">
+        <f>Primary_energy_and_emission_fac!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>Primary_energy_and_emission_fac!C32</f>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>Primary_energy_and_emission_fac!D32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f>Primary_energy_and_emission_fac!E32</f>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>Primary_energy_and_emission_fac!A33</f>
+        <v>District cooling</v>
+      </c>
+      <c r="B33">
+        <f>Primary_energy_and_emission_fac!B33</f>
+        <v>0.72</v>
+      </c>
+      <c r="C33">
+        <f>Primary_energy_and_emission_fac!C33</f>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>Primary_energy_and_emission_fac!D33</f>
+        <v>224</v>
+      </c>
+      <c r="E33" t="str">
+        <f>Primary_energy_and_emission_fac!E33</f>
+        <v>thermal</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>Primary_energy_and_emission_fac!A34</f>
+        <v>NoCooling</v>
+      </c>
+      <c r="B34">
+        <f>Primary_energy_and_emission_fac!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>Primary_energy_and_emission_fac!C34</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>Primary_energy_and_emission_fac!D34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f>Primary_energy_and_emission_fac!E34</f>
+        <v>none</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +2492,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1129,7 +2524,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +2554,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +2584,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +2614,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +2644,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +2674,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
@@ -1309,7 +2704,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +2734,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +2764,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
@@ -1399,7 +2794,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +2824,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -1459,7 +2854,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="32" t="s">
         <v>15</v>
       </c>
@@ -1489,7 +2884,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="32" t="s">
         <v>16</v>
       </c>
@@ -1519,7 +2914,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="36" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +2944,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="32" t="s">
         <v>18</v>
       </c>
@@ -1579,7 +2974,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="32" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +3004,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="36" t="s">
         <v>20</v>
       </c>
@@ -1639,7 +3034,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +3064,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
@@ -1699,7 +3094,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +3124,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
@@ -1759,7 +3154,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
@@ -1789,7 +3184,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
@@ -1819,7 +3214,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="19" t="s">
         <v>27</v>
       </c>
@@ -1849,7 +3244,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="62" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1881,7 +3276,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
@@ -1911,7 +3306,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="19" t="s">
         <v>31</v>
       </c>
@@ -1961,1390 +3356,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45E3DC-C1A7-49A4-A896-CB622C66A4D4}">
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1.06</v>
-      </c>
-      <c r="D2" s="8">
-        <v>310</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D3" s="15">
-        <v>240</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D4" s="15">
-        <v>270</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1.04</v>
-      </c>
-      <c r="D5" s="15">
-        <v>400</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1.07</v>
-      </c>
-      <c r="D6" s="22">
-        <v>430</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D7" s="15">
-        <v>140</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D8" s="15">
-        <v>75</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D9" s="15">
-        <v>140</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D10" s="15">
-        <v>140</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1.06</v>
-      </c>
-      <c r="D11" s="15">
-        <v>210</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1.06</v>
-      </c>
-      <c r="D12" s="15">
-        <v>105</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="50">
-        <f>(B7+B11)/2</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C13" s="50">
-        <f t="shared" ref="C13:D13" si="0">(C7+C11)/2</f>
-        <v>1.085</v>
-      </c>
-      <c r="D13" s="51">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1.08</v>
-      </c>
-      <c r="D14" s="22">
-        <v>20</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
-        <v>300</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="C16" s="35">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15">
-        <v>180</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="37">
-        <v>0</v>
-      </c>
-      <c r="C17" s="21">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22">
-        <v>40</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="33">
-        <v>1.3</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15">
-        <v>400</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="C19" s="35">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15">
-        <v>300</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="21">
-        <v>1</v>
-      </c>
-      <c r="D20" s="22">
-        <v>60</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="20">
-        <v>0</v>
-      </c>
-      <c r="C24" s="21">
-        <v>1</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15">
-        <v>20</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="C26" s="14">
-        <v>1</v>
-      </c>
-      <c r="D26" s="38">
-        <v>180</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="20">
-        <v>0</v>
-      </c>
-      <c r="C27" s="21">
-        <v>1</v>
-      </c>
-      <c r="D27" s="22">
-        <v>40</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <v>505</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="C29" s="14">
-        <v>1</v>
-      </c>
-      <c r="D29" s="15">
-        <v>560</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="20">
-        <v>2.8</v>
-      </c>
-      <c r="C30" s="21">
-        <v>1</v>
-      </c>
-      <c r="D30" s="47">
-        <v>860</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="50">
-        <v>0</v>
-      </c>
-      <c r="C31" s="54">
-        <v>1</v>
-      </c>
-      <c r="D31" s="55">
-        <v>0</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="50">
-        <v>0</v>
-      </c>
-      <c r="C32" s="54">
-        <v>1</v>
-      </c>
-      <c r="D32" s="55">
-        <v>0</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="58">
-        <f>B29/I33</f>
-        <v>0.72</v>
-      </c>
-      <c r="C33" s="14">
-        <v>1</v>
-      </c>
-      <c r="D33" s="57">
-        <f>D29/I33</f>
-        <v>224</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="59">
-        <v>2.5</v>
-      </c>
-      <c r="J33" s="59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="50">
-        <v>0</v>
-      </c>
-      <c r="C34" s="54">
-        <v>1</v>
-      </c>
-      <c r="D34" s="55">
-        <v>0</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82E5A95-F5A3-4294-9631-BBFD3FF8EEA6}">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>Primary_energy_and_emission_fac!A1</f>
-        <v>Energy Carrier</v>
-      </c>
-      <c r="B1" t="str">
-        <f>Primary_energy_and_emission_fac!B1</f>
-        <v>Primary Energy Factor GEG   [-]</v>
-      </c>
-      <c r="C1" t="str">
-        <f>Primary_energy_and_emission_fac!C1</f>
-        <v>Relation Calorific to Heating Value GEG  [-]</v>
-      </c>
-      <c r="D1" t="str">
-        <f>Primary_energy_and_emission_fac!D1</f>
-        <v>GWP spezific to heating value GEG [g/kWh]</v>
-      </c>
-      <c r="E1" t="str">
-        <f>Primary_energy_and_emission_fac!E1</f>
-        <v>Use</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>Primary_energy_and_emission_fac!A2</f>
-        <v>Light fuel oil</v>
-      </c>
-      <c r="B2">
-        <f>Primary_energy_and_emission_fac!B2</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2">
-        <f>Primary_energy_and_emission_fac!C2</f>
-        <v>1.06</v>
-      </c>
-      <c r="D2">
-        <f>Primary_energy_and_emission_fac!D2</f>
-        <v>310</v>
-      </c>
-      <c r="E2" t="str">
-        <f>Primary_energy_and_emission_fac!E2</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>Primary_energy_and_emission_fac!A3</f>
-        <v>Natural gas</v>
-      </c>
-      <c r="B3">
-        <f>Primary_energy_and_emission_fac!B3</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C3">
-        <f>Primary_energy_and_emission_fac!C3</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D3">
-        <f>Primary_energy_and_emission_fac!D3</f>
-        <v>240</v>
-      </c>
-      <c r="E3" t="str">
-        <f>Primary_energy_and_emission_fac!E3</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>Primary_energy_and_emission_fac!A4</f>
-        <v>Liquefied petroleum gas (LPG)</v>
-      </c>
-      <c r="B4">
-        <f>Primary_energy_and_emission_fac!B4</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4">
-        <f>Primary_energy_and_emission_fac!C4</f>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D4">
-        <f>Primary_energy_and_emission_fac!D4</f>
-        <v>270</v>
-      </c>
-      <c r="E4" t="str">
-        <f>Primary_energy_and_emission_fac!E4</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>Primary_energy_and_emission_fac!A5</f>
-        <v>Hard coal</v>
-      </c>
-      <c r="B5">
-        <f>Primary_energy_and_emission_fac!B5</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5">
-        <f>Primary_energy_and_emission_fac!C5</f>
-        <v>1.04</v>
-      </c>
-      <c r="D5">
-        <f>Primary_energy_and_emission_fac!D5</f>
-        <v>400</v>
-      </c>
-      <c r="E5" t="str">
-        <f>Primary_energy_and_emission_fac!E5</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>Primary_energy_and_emission_fac!A6</f>
-        <v>Soft coal</v>
-      </c>
-      <c r="B6">
-        <f>Primary_energy_and_emission_fac!B6</f>
-        <v>1.2</v>
-      </c>
-      <c r="C6">
-        <f>Primary_energy_and_emission_fac!C6</f>
-        <v>1.07</v>
-      </c>
-      <c r="D6">
-        <f>Primary_energy_and_emission_fac!D6</f>
-        <v>430</v>
-      </c>
-      <c r="E6" t="str">
-        <f>Primary_energy_and_emission_fac!E6</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>Primary_energy_and_emission_fac!A7</f>
-        <v>Biogas (general)</v>
-      </c>
-      <c r="B7">
-        <f>Primary_energy_and_emission_fac!B7</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C7">
-        <f>Primary_energy_and_emission_fac!C7</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D7">
-        <f>Primary_energy_and_emission_fac!D7</f>
-        <v>140</v>
-      </c>
-      <c r="E7" t="str">
-        <f>Primary_energy_and_emission_fac!E7</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>Primary_energy_and_emission_fac!A8</f>
-        <v>Biogas (generated close to building)</v>
-      </c>
-      <c r="B8">
-        <f>Primary_energy_and_emission_fac!B8</f>
-        <v>0.3</v>
-      </c>
-      <c r="C8">
-        <f>Primary_energy_and_emission_fac!C8</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D8">
-        <f>Primary_energy_and_emission_fac!D8</f>
-        <v>75</v>
-      </c>
-      <c r="E8" t="str">
-        <f>Primary_energy_and_emission_fac!E8</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>Primary_energy_and_emission_fac!A9</f>
-        <v>Biomethan (Condensing Boiler)</v>
-      </c>
-      <c r="B9">
-        <f>Primary_energy_and_emission_fac!B9</f>
-        <v>0.7</v>
-      </c>
-      <c r="C9">
-        <f>Primary_energy_and_emission_fac!C9</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D9">
-        <f>Primary_energy_and_emission_fac!D9</f>
-        <v>140</v>
-      </c>
-      <c r="E9" t="str">
-        <f>Primary_energy_and_emission_fac!E9</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>Primary_energy_and_emission_fac!A10</f>
-        <v>Biomethan (Combined Heat and Power)</v>
-      </c>
-      <c r="B10">
-        <f>Primary_energy_and_emission_fac!B10</f>
-        <v>0.5</v>
-      </c>
-      <c r="C10">
-        <f>Primary_energy_and_emission_fac!C10</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D10">
-        <f>Primary_energy_and_emission_fac!D10</f>
-        <v>140</v>
-      </c>
-      <c r="E10" t="str">
-        <f>Primary_energy_and_emission_fac!E10</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>Primary_energy_and_emission_fac!A11</f>
-        <v>Bio-oil (general)</v>
-      </c>
-      <c r="B11">
-        <f>Primary_energy_and_emission_fac!B11</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C11">
-        <f>Primary_energy_and_emission_fac!C11</f>
-        <v>1.06</v>
-      </c>
-      <c r="D11">
-        <f>Primary_energy_and_emission_fac!D11</f>
-        <v>210</v>
-      </c>
-      <c r="E11" t="str">
-        <f>Primary_energy_and_emission_fac!E11</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Primary_energy_and_emission_fac!A12</f>
-        <v>Bio-oil (generated close to building)</v>
-      </c>
-      <c r="B12">
-        <f>Primary_energy_and_emission_fac!B12</f>
-        <v>0.3</v>
-      </c>
-      <c r="C12">
-        <f>Primary_energy_and_emission_fac!C12</f>
-        <v>1.06</v>
-      </c>
-      <c r="D12">
-        <f>Primary_energy_and_emission_fac!D12</f>
-        <v>105</v>
-      </c>
-      <c r="E12" t="str">
-        <f>Primary_energy_and_emission_fac!E12</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>Primary_energy_and_emission_fac!A13</f>
-        <v>Biogas Bio-oil Mix (general)</v>
-      </c>
-      <c r="B13">
-        <f>Primary_energy_and_emission_fac!B13</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C13">
-        <f>Primary_energy_and_emission_fac!C13</f>
-        <v>1.085</v>
-      </c>
-      <c r="D13">
-        <f>Primary_energy_and_emission_fac!D13</f>
-        <v>175</v>
-      </c>
-      <c r="E13" t="str">
-        <f>Primary_energy_and_emission_fac!E13</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Primary_energy_and_emission_fac!A14</f>
-        <v>Wood</v>
-      </c>
-      <c r="B14">
-        <f>Primary_energy_and_emission_fac!B14</f>
-        <v>0.2</v>
-      </c>
-      <c r="C14">
-        <f>Primary_energy_and_emission_fac!C14</f>
-        <v>1.08</v>
-      </c>
-      <c r="D14">
-        <f>Primary_energy_and_emission_fac!D14</f>
-        <v>20</v>
-      </c>
-      <c r="E14" t="str">
-        <f>Primary_energy_and_emission_fac!E14</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Primary_energy_and_emission_fac!A15</f>
-        <v>District heating (Combined Heat and Power) Coal</v>
-      </c>
-      <c r="B15">
-        <f>Primary_energy_and_emission_fac!B15</f>
-        <v>0.7</v>
-      </c>
-      <c r="C15">
-        <f>Primary_energy_and_emission_fac!C15</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>Primary_energy_and_emission_fac!D15</f>
-        <v>300</v>
-      </c>
-      <c r="E15" t="str">
-        <f>Primary_energy_and_emission_fac!E15</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>Primary_energy_and_emission_fac!A16</f>
-        <v>District heating (Combined Heat and Power) Gas or Liquid fuels</v>
-      </c>
-      <c r="B16">
-        <f>Primary_energy_and_emission_fac!B16</f>
-        <v>0.7</v>
-      </c>
-      <c r="C16">
-        <f>Primary_energy_and_emission_fac!C16</f>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f>Primary_energy_and_emission_fac!D16</f>
-        <v>180</v>
-      </c>
-      <c r="E16" t="str">
-        <f>Primary_energy_and_emission_fac!E16</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>Primary_energy_and_emission_fac!A17</f>
-        <v>District heating (Combined Heat and Power) Renewable fuels</v>
-      </c>
-      <c r="B17">
-        <f>Primary_energy_and_emission_fac!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f>Primary_energy_and_emission_fac!C17</f>
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f>Primary_energy_and_emission_fac!D17</f>
-        <v>40</v>
-      </c>
-      <c r="E17" t="str">
-        <f>Primary_energy_and_emission_fac!E17</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>Primary_energy_and_emission_fac!A18</f>
-        <v>District heating (Heating Plant) Coal</v>
-      </c>
-      <c r="B18">
-        <f>Primary_energy_and_emission_fac!B18</f>
-        <v>1.3</v>
-      </c>
-      <c r="C18">
-        <f>Primary_energy_and_emission_fac!C18</f>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f>Primary_energy_and_emission_fac!D18</f>
-        <v>400</v>
-      </c>
-      <c r="E18" t="str">
-        <f>Primary_energy_and_emission_fac!E18</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>Primary_energy_and_emission_fac!A19</f>
-        <v>District heating (Heating Plant) Gas or Liquid fuels</v>
-      </c>
-      <c r="B19">
-        <f>Primary_energy_and_emission_fac!B19</f>
-        <v>1.3</v>
-      </c>
-      <c r="C19">
-        <f>Primary_energy_and_emission_fac!C19</f>
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>Primary_energy_and_emission_fac!D19</f>
-        <v>300</v>
-      </c>
-      <c r="E19" t="str">
-        <f>Primary_energy_and_emission_fac!E19</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>Primary_energy_and_emission_fac!A20</f>
-        <v>District heating (Heating Plant) Renewable fuels</v>
-      </c>
-      <c r="B20">
-        <f>Primary_energy_and_emission_fac!B20</f>
-        <v>0.1</v>
-      </c>
-      <c r="C20">
-        <f>Primary_energy_and_emission_fac!C20</f>
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <f>Primary_energy_and_emission_fac!D20</f>
-        <v>60</v>
-      </c>
-      <c r="E20" t="str">
-        <f>Primary_energy_and_emission_fac!E20</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>Primary_energy_and_emission_fac!A21</f>
-        <v>Solarthermal</v>
-      </c>
-      <c r="B21">
-        <f>Primary_energy_and_emission_fac!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f>Primary_energy_and_emission_fac!C21</f>
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f>Primary_energy_and_emission_fac!D21</f>
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <f>Primary_energy_and_emission_fac!E21</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>Primary_energy_and_emission_fac!A22</f>
-        <v>Geothermal</v>
-      </c>
-      <c r="B22">
-        <f>Primary_energy_and_emission_fac!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <f>Primary_energy_and_emission_fac!C22</f>
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <f>Primary_energy_and_emission_fac!D22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" t="str">
-        <f>Primary_energy_and_emission_fac!E22</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>Primary_energy_and_emission_fac!A23</f>
-        <v>Ambient heat</v>
-      </c>
-      <c r="B23">
-        <f>Primary_energy_and_emission_fac!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <f>Primary_energy_and_emission_fac!C23</f>
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f>Primary_energy_and_emission_fac!D23</f>
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <f>Primary_energy_and_emission_fac!E23</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>Primary_energy_and_emission_fac!A24</f>
-        <v>Ambient cold</v>
-      </c>
-      <c r="B24">
-        <f>Primary_energy_and_emission_fac!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <f>Primary_energy_and_emission_fac!C24</f>
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <f>Primary_energy_and_emission_fac!D24</f>
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <f>Primary_energy_and_emission_fac!E24</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>Primary_energy_and_emission_fac!A25</f>
-        <v>Heat via Residential Waste</v>
-      </c>
-      <c r="B25">
-        <f>Primary_energy_and_emission_fac!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <f>Primary_energy_and_emission_fac!C25</f>
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <f>Primary_energy_and_emission_fac!D25</f>
-        <v>20</v>
-      </c>
-      <c r="E25" t="str">
-        <f>Primary_energy_and_emission_fac!E25</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>Primary_energy_and_emission_fac!A26</f>
-        <v>Heat via close to building Combined Heat and Power</v>
-      </c>
-      <c r="B26">
-        <f>Primary_energy_and_emission_fac!B26</f>
-        <v>0.6</v>
-      </c>
-      <c r="C26">
-        <f>Primary_energy_and_emission_fac!C26</f>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <f>Primary_energy_and_emission_fac!D26</f>
-        <v>180</v>
-      </c>
-      <c r="E26" t="str">
-        <f>Primary_energy_and_emission_fac!E26</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>Primary_energy_and_emission_fac!A27</f>
-        <v>Waste Heat generated close to building</v>
-      </c>
-      <c r="B27">
-        <f>Primary_energy_and_emission_fac!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <f>Primary_energy_and_emission_fac!C27</f>
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f>Primary_energy_and_emission_fac!D27</f>
-        <v>40</v>
-      </c>
-      <c r="E27" t="str">
-        <f>Primary_energy_and_emission_fac!E27</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>Primary_energy_and_emission_fac!A28</f>
-        <v xml:space="preserve">Electricity grid mix 2018 (GEMIS) </v>
-      </c>
-      <c r="B28">
-        <f>Primary_energy_and_emission_fac!B28</f>
-        <v>2.4</v>
-      </c>
-      <c r="C28">
-        <f>Primary_energy_and_emission_fac!C28</f>
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <f>Primary_energy_and_emission_fac!D28</f>
-        <v>505</v>
-      </c>
-      <c r="E28" t="str">
-        <f>Primary_energy_and_emission_fac!E28</f>
-        <v>electric</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>Primary_energy_and_emission_fac!A29</f>
-        <v>Electricity grid mix</v>
-      </c>
-      <c r="B29">
-        <f>Primary_energy_and_emission_fac!B29</f>
-        <v>1.8</v>
-      </c>
-      <c r="C29">
-        <f>Primary_energy_and_emission_fac!C29</f>
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <f>Primary_energy_and_emission_fac!D29</f>
-        <v>560</v>
-      </c>
-      <c r="E29" t="str">
-        <f>Primary_energy_and_emission_fac!E29</f>
-        <v>electric</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>Primary_energy_and_emission_fac!A30</f>
-        <v>Electricity grid mix Replacement</v>
-      </c>
-      <c r="B30">
-        <f>Primary_energy_and_emission_fac!B30</f>
-        <v>2.8</v>
-      </c>
-      <c r="C30">
-        <f>Primary_energy_and_emission_fac!C30</f>
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f>Primary_energy_and_emission_fac!D30</f>
-        <v>860</v>
-      </c>
-      <c r="E30" t="str">
-        <f>Primary_energy_and_emission_fac!E30</f>
-        <v>electric</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>Primary_energy_and_emission_fac!A31</f>
-        <v>None</v>
-      </c>
-      <c r="B31">
-        <f>Primary_energy_and_emission_fac!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <f>Primary_energy_and_emission_fac!C31</f>
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f>Primary_energy_and_emission_fac!D31</f>
-        <v>0</v>
-      </c>
-      <c r="E31" t="str">
-        <f>Primary_energy_and_emission_fac!E31</f>
-        <v>none</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>Primary_energy_and_emission_fac!A32</f>
-        <v>NoHeating</v>
-      </c>
-      <c r="B32">
-        <f>Primary_energy_and_emission_fac!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <f>Primary_energy_and_emission_fac!C32</f>
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <f>Primary_energy_and_emission_fac!D32</f>
-        <v>0</v>
-      </c>
-      <c r="E32" t="str">
-        <f>Primary_energy_and_emission_fac!E32</f>
-        <v>none</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>Primary_energy_and_emission_fac!A33</f>
-        <v>District cooling</v>
-      </c>
-      <c r="B33">
-        <f>Primary_energy_and_emission_fac!B33</f>
-        <v>0.72</v>
-      </c>
-      <c r="C33">
-        <f>Primary_energy_and_emission_fac!C33</f>
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <f>Primary_energy_and_emission_fac!D33</f>
-        <v>224</v>
-      </c>
-      <c r="E33" t="str">
-        <f>Primary_energy_and_emission_fac!E33</f>
-        <v>thermal</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>Primary_energy_and_emission_fac!A34</f>
-        <v>NoCooling</v>
-      </c>
-      <c r="B34">
-        <f>Primary_energy_and_emission_fac!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f>Primary_energy_and_emission_fac!C34</f>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f>Primary_energy_and_emission_fac!D34</f>
-        <v>0</v>
-      </c>
-      <c r="E34" t="str">
-        <f>Primary_energy_and_emission_fac!E34</f>
-        <v>none</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/iso_simulator/annualSimulation/LCA/Primary_energy_and_emission_factors.xlsx
+++ b/iso_simulator/annualSimulation/LCA/Primary_energy_and_emission_factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/DIBS---Dynamic-ISO-Building-Simulator/iso_simulator/annualSimulation/LCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{39144B03-9582-4C0A-9967-1057809B5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3C7F3E2-B437-47DC-A849-23E15998380B}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{39144B03-9582-4C0A-9967-1057809B5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A99778A-96D8-409B-8C26-4FE559F77731}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary_energy_and_emission_fac" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>Rote Werte sind nicht GEG konform und müssen entsprechend § 22 bzw. § 85 nach DIN V 18599-9:2018-09 ermittelt werden!</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>and Electriciy grid mix use and small losses (therefore smaler COP)</t>
+  </si>
+  <si>
+    <t>German building energy act (GEG 2020)</t>
   </si>
 </sst>
 </file>
@@ -743,6 +746,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -760,10 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -781,6 +784,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,7 +1056,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1102,9 @@
       <c r="E2" s="42" t="s">
         <v>62</v>
       </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
@@ -1599,7 +1609,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="59" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="50">
@@ -1619,7 +1629,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="60" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="57">
@@ -1650,7 +1660,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="59" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="50">
@@ -2492,7 +2502,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2524,7 +2534,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
@@ -2554,7 +2564,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
@@ -2584,7 +2594,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
@@ -2614,7 +2624,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -2644,7 +2654,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
@@ -2674,7 +2684,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
@@ -2704,7 +2714,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
@@ -2734,7 +2744,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
@@ -2764,7 +2774,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
@@ -2794,7 +2804,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
@@ -2824,7 +2834,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2854,7 +2864,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="32" t="s">
         <v>15</v>
       </c>
@@ -2884,7 +2894,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="32" t="s">
         <v>16</v>
       </c>
@@ -2914,7 +2924,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="36" t="s">
         <v>17</v>
       </c>
@@ -2944,7 +2954,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="32" t="s">
         <v>18</v>
       </c>
@@ -2974,7 +2984,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="32" t="s">
         <v>19</v>
       </c>
@@ -3004,7 +3014,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="36" t="s">
         <v>20</v>
       </c>
@@ -3034,7 +3044,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
@@ -3064,7 +3074,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
@@ -3094,7 +3104,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
@@ -3124,7 +3134,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
@@ -3154,7 +3164,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
@@ -3184,7 +3194,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
@@ -3214,7 +3224,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="19" t="s">
         <v>27</v>
       </c>
@@ -3244,7 +3254,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3276,7 +3286,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
@@ -3306,7 +3316,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="19" t="s">
         <v>31</v>
       </c>
